--- a/results/Feature Importance/CatBoostRegressor_feature_importance.xlsx
+++ b/results/Feature Importance/CatBoostRegressor_feature_importance.xlsx
@@ -452,57 +452,57 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.85946506762129</v>
+        <v>32.35024788160722</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nHBDon</t>
+          <t>WTPT-3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.24926553296082</v>
+        <v>10.0762053422072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WTPT-3</t>
+          <t>nHBDon</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.835454528357614</v>
+        <v>8.367943729202233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TopoPSA</t>
+          <t>JPLogP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.221300496929245</v>
+        <v>8.302526262163198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JPLogP</t>
+          <t>TopoPSA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.036444651024609</v>
+        <v>4.72797613886309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MDEO-11</t>
+          <t>nHBAcc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.759363455897765</v>
+        <v>3.396931762155336</v>
       </c>
     </row>
     <row r="8">
@@ -512,137 +512,137 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.373970872232236</v>
+        <v>3.287305893363739</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ALogp2</t>
+          <t>MDEO-11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.118395474715357</v>
+        <v>2.915029170897265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nHBAcc</t>
+          <t>Zagreb</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.870223825367731</v>
+        <v>2.206743820270404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ATSc2</t>
+          <t>ALogp2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.455359727651096</v>
+        <v>1.742007964383634</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WPATH</t>
+          <t>BCUTw-1l</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.413177545215392</v>
+        <v>1.471634651672369</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MDEC-33</t>
+          <t>ATSc4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.3736749139001</v>
+        <v>1.184507023776967</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WTPT-2</t>
+          <t>MDEC-33</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.27247031320242</v>
+        <v>1.169371947295128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ATSc3</t>
+          <t>nAcid</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.040362891498907</v>
+        <v>1.119544808527244</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C2SP2</t>
+          <t>MDEC-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9702185583804498</v>
+        <v>1.033712723794934</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCUTw-1h</t>
+          <t>MDEN-13</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9360267150147424</v>
+        <v>1.028871258771127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ATSc5</t>
+          <t>WPATH</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8983611390126575</v>
+        <v>0.860637736939572</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCUTw-1l</t>
+          <t>Kier3</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8467460210584901</v>
+        <v>0.8566358050453241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MDEN-13</t>
+          <t>BCUTp-1h</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8249099356502648</v>
+        <v>0.8039709146268461</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nAcid</t>
+          <t>khs.sssCH</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8011881551374501</v>
+        <v>0.8035688734613109</v>
       </c>
     </row>
   </sheetData>
